--- a/NEW HR/DONE/MAURICIO, MARIZIEL.xlsx
+++ b/NEW HR/DONE/MAURICIO, MARIZIEL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>MAURICIO, MARIZIEL</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>12/18-22/2023</t>
   </si>
 </sst>
 </file>
@@ -2888,7 +2900,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K139" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3296,12 +3308,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:M139"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A69" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80:C81"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A75" activePane="bottomLeft"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,7 +3331,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3340,7 +3352,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3358,7 +3370,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3378,7 +3390,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3386,7 +3398,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3399,7 +3411,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3416,7 +3428,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3460,7 +3472,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3470,12 +3482,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3497,7 +3510,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3517,7 +3530,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3537,7 +3550,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3557,7 +3570,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3577,7 +3590,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3597,7 +3610,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -4954,15 +4967,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45017</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4970,15 +4987,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45047</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4986,15 +5007,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45078</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5002,15 +5027,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45108</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5018,15 +5047,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45139</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5034,15 +5067,19 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45170</v>
+      </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5050,15 +5087,19 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45200</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -5066,15 +5107,19 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45231</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -5082,8 +5127,12 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -5095,13 +5144,19 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="39"/>
+      <c r="D91" s="39">
+        <v>5</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -5111,10 +5166,14 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="48" t="s">
+        <v>70</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5130,7 +5189,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45292</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5834,20 +5895,52 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="41"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="43"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5896,7 +5989,7 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
@@ -8114,7 +8207,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
